--- a/project/Python/owlapptest/saveexcel/matches.xlsx
+++ b/project/Python/owlapptest/saveexcel/matches.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lvqih\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F03C604-83EA-472F-863C-6BFEE2039CC9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A42BFD-1E10-4609-A094-922DEAB53B2F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stages" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -86,7 +86,7 @@
     <t>休斯顿神枪手队</t>
   </si>
   <si>
-    <t>Atlanta Reign</t>
+    <t>亚特兰大君临队</t>
   </si>
   <si>
     <t>佛罗里达狂欢队</t>
@@ -134,34 +134,34 @@
     <t>国王大道</t>
   </si>
   <si>
+    <t>伊利奥斯</t>
+  </si>
+  <si>
+    <t>尼泊尔</t>
+  </si>
+  <si>
+    <t>釜山</t>
+  </si>
+  <si>
+    <t>好莱坞</t>
+  </si>
+  <si>
+    <t>努巴尼</t>
+  </si>
+  <si>
+    <t>里阿尔托</t>
+  </si>
+  <si>
+    <t>66号公路</t>
+  </si>
+  <si>
+    <t>多拉多</t>
+  </si>
+  <si>
     <t>沃斯卡娅工业区</t>
   </si>
   <si>
-    <t>好莱坞</t>
-  </si>
-  <si>
-    <t>多拉多</t>
-  </si>
-  <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
-    <t>66号公路</t>
-  </si>
-  <si>
-    <t>伊利奥斯</t>
-  </si>
-  <si>
-    <t>釜山</t>
-  </si>
-  <si>
-    <t>努巴尼</t>
-  </si>
-  <si>
     <t>“地平线”月球基地</t>
-  </si>
-  <si>
-    <t>里阿尔托</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection sqref="A1:I71"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,16 +585,16 @@
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -614,16 +614,16 @@
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -643,16 +643,16 @@
         <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -672,16 +672,16 @@
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -701,16 +701,16 @@
         <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -730,16 +730,16 @@
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
@@ -759,16 +759,16 @@
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -788,16 +788,16 @@
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -817,16 +817,16 @@
         <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -846,16 +846,16 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
@@ -875,16 +875,16 @@
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -904,16 +904,16 @@
         <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -933,16 +933,16 @@
         <v>14</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -962,16 +962,16 @@
         <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
@@ -991,16 +991,16 @@
         <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
@@ -1020,16 +1020,16 @@
         <v>23</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
@@ -1049,16 +1049,16 @@
         <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -1078,16 +1078,16 @@
         <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
@@ -1107,16 +1107,16 @@
         <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -1136,16 +1136,16 @@
         <v>25</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
@@ -1165,16 +1165,16 @@
         <v>19</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
@@ -1194,16 +1194,16 @@
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -1223,16 +1223,16 @@
         <v>14</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -1252,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>36</v>
@@ -1261,7 +1261,7 @@
         <v>35</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
@@ -1281,16 +1281,16 @@
         <v>27</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
@@ -1310,16 +1310,16 @@
         <v>23</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -1339,16 +1339,16 @@
         <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H28" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -1368,7 +1368,7 @@
         <v>22</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>36</v>
@@ -1377,7 +1377,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -1397,16 +1397,16 @@
         <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -1426,16 +1426,16 @@
         <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -1455,16 +1455,16 @@
         <v>29</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
@@ -1484,16 +1484,16 @@
         <v>24</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
@@ -1513,16 +1513,16 @@
         <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
@@ -1542,16 +1542,16 @@
         <v>14</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
@@ -1571,16 +1571,16 @@
         <v>26</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
@@ -1600,16 +1600,16 @@
         <v>18</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
@@ -1629,16 +1629,16 @@
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
@@ -1658,7 +1658,7 @@
         <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>36</v>
@@ -1667,7 +1667,7 @@
         <v>35</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
@@ -1687,16 +1687,16 @@
         <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
@@ -1716,16 +1716,16 @@
         <v>25</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
@@ -1745,16 +1745,16 @@
         <v>21</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
@@ -1774,16 +1774,16 @@
         <v>20</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
@@ -1803,16 +1803,16 @@
         <v>28</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
@@ -1832,16 +1832,16 @@
         <v>23</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
@@ -1861,16 +1861,16 @@
         <v>19</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
@@ -1890,16 +1890,16 @@
         <v>16</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H47" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
@@ -1919,16 +1919,16 @@
         <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
@@ -1948,16 +1948,16 @@
         <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
@@ -1977,7 +1977,7 @@
         <v>16</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>36</v>
@@ -1986,7 +1986,7 @@
         <v>35</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
@@ -2006,16 +2006,16 @@
         <v>11</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
@@ -2035,16 +2035,16 @@
         <v>25</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
@@ -2064,16 +2064,16 @@
         <v>30</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
@@ -2093,16 +2093,16 @@
         <v>24</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
@@ -2122,16 +2122,16 @@
         <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
@@ -2151,16 +2151,16 @@
         <v>20</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
@@ -2180,16 +2180,16 @@
         <v>28</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
@@ -2209,7 +2209,7 @@
         <v>16</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>36</v>
@@ -2218,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -2238,16 +2238,16 @@
         <v>19</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
@@ -2267,16 +2267,16 @@
         <v>24</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H60" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
@@ -2296,7 +2296,7 @@
         <v>17</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>36</v>
@@ -2305,7 +2305,7 @@
         <v>35</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
@@ -2325,16 +2325,16 @@
         <v>14</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
@@ -2354,16 +2354,16 @@
         <v>25</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
@@ -2383,7 +2383,7 @@
         <v>27</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>36</v>
@@ -2392,7 +2392,7 @@
         <v>36</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
@@ -2412,16 +2412,16 @@
         <v>15</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
@@ -2441,16 +2441,16 @@
         <v>23</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
@@ -2470,16 +2470,16 @@
         <v>25</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
@@ -2499,16 +2499,16 @@
         <v>27</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
@@ -2528,16 +2528,16 @@
         <v>22</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H69" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
@@ -2557,16 +2557,16 @@
         <v>21</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>36</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
@@ -2586,16 +2586,16 @@
         <v>30</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I71" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
